--- a/mvr_extraswitch_log.xlsx
+++ b/mvr_extraswitch_log.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12840" yWindow="60" windowWidth="13640" windowHeight="13920" tabRatio="500"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="13740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
   <si>
     <t>antibiasL</t>
   </si>
@@ -34,6 +34,12 @@
   </si>
   <si>
     <t>SessionType</t>
+  </si>
+  <si>
+    <t>switchR20</t>
+  </si>
+  <si>
+    <t>switchL20</t>
   </si>
 </sst>
 </file>
@@ -411,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A14" sqref="A14:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -527,6 +533,72 @@
       </c>
       <c r="C10" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>149</v>
+      </c>
+      <c r="B11">
+        <v>98</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>149</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>149</v>
+      </c>
+      <c r="B13">
+        <v>102</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>150</v>
+      </c>
+      <c r="B14" s="1">
+        <v>97</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>150</v>
+      </c>
+      <c r="B15" s="1">
+        <v>99</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>150</v>
+      </c>
+      <c r="B16" s="1">
+        <v>101</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
